--- a/biology/Zoologie/Conus_advertex/Conus_advertex.xlsx
+++ b/biology/Zoologie/Conus_advertex/Conus_advertex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus advertex est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 27 et 46 mm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine d'escargot conique est endémique d'Australie (Nouvelle-Galles du Sud, Queensland)[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine d'escargot conique est endémique d'Australie (Nouvelle-Galles du Sud, Queensland). 
 </t>
         </is>
       </c>
@@ -576,14 +592,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus advertex a été décrite pour la première fois en 1961 par le malacologiste australien Thomas (Tom) A. Garrard[2] dans la publication intitulée « Journal of the Malacological Society of Australia »[3],[4].
-Synonymes
-Conus (Plicaustraconus) advertex (Garrard, 1961) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus advertex a été décrite pour la première fois en 1961 par le malacologiste australien Thomas (Tom) A. Garrard dans la publication intitulée « Journal of the Malacological Society of Australia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_advertex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_advertex</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Plicaustraconus) advertex (Garrard, 1961) · appellation alternative
 Plicaustraconus advertex (Garrard, 1961) · non accepté
-Rhizoconus advertex Garrard, 1961 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus advertex dans les principales bases sont les suivants :
+Rhizoconus advertex Garrard, 1961 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_advertex</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_advertex</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus advertex dans les principales bases sont les suivants :
 AFD : Conus_(Plicaustraconus)_advertex - CoL : 5ZXMN - GBIF : 5795655 - iNaturalist : 925403 - IRMNG : 11127636 - 
 </t>
         </is>
